--- a/requeriments/Inspeção/Planilha de Inspeção.xlsx
+++ b/requeriments/Inspeção/Planilha de Inspeção.xlsx
@@ -4,24 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="24615" windowHeight="11445" activeTab="7"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="24615" windowHeight="11445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UCS01" sheetId="6" r:id="rId1"/>
     <sheet name="UCS02" sheetId="7" r:id="rId2"/>
     <sheet name="UCS03" sheetId="8" r:id="rId3"/>
     <sheet name="UCS04" sheetId="1" r:id="rId4"/>
-    <sheet name="UCS05" sheetId="2" r:id="rId5"/>
-    <sheet name="UCS06" sheetId="5" r:id="rId6"/>
-    <sheet name="UCS07" sheetId="3" r:id="rId7"/>
-    <sheet name="Mediação da Inspeção" sheetId="4" r:id="rId8"/>
+    <sheet name="UCS05" sheetId="3" r:id="rId5"/>
+    <sheet name="Mediação da Inspeção" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="52">
   <si>
     <t>Nome do caso de uso:</t>
   </si>
@@ -177,12 +175,6 @@
   </si>
   <si>
     <t>Listar Bolsas</t>
-  </si>
-  <si>
-    <t>Atribuir Bolsas</t>
-  </si>
-  <si>
-    <t>Revogar Bolsas</t>
   </si>
   <si>
     <t>10 minutos</t>
@@ -433,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -448,7 +440,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -461,20 +452,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -483,15 +473,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -879,136 +869,136 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="12.75">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="12.75">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="12.75">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="12.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="16">
         <v>0.375</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="12.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="16">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="12.75">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="B7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="12.75">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="12.75">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="12.75">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1021,10 +1011,10 @@
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
       <c r="A12" s="7">
@@ -1041,10 +1031,10 @@
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1">
       <c r="A13" s="7">
@@ -1061,10 +1051,10 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="25.5">
       <c r="A14" s="7">
@@ -1081,10 +1071,10 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="25.5">
       <c r="A15" s="7">
@@ -1101,10 +1091,10 @@
       <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="25.5">
       <c r="A16" s="7">
@@ -1121,10 +1111,10 @@
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="12.75">
       <c r="A17" s="17" t="s">
@@ -1150,12 +1140,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
     <mergeCell ref="A17:H18"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
@@ -1168,6 +1152,12 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E2 A2:A9">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -1192,136 +1182,136 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="16">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="16">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="B7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1334,10 +1324,10 @@
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="7">
@@ -1354,10 +1344,10 @@
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="7">
@@ -1374,10 +1364,10 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="7">
@@ -1394,10 +1384,10 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="7">
@@ -1414,10 +1404,10 @@
       <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="7">
@@ -1434,22 +1424,22 @@
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="31"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="20"/>
@@ -1463,12 +1453,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
     <mergeCell ref="A17:H18"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
@@ -1481,6 +1465,12 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1500,136 +1490,136 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="16">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="16">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="B7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1642,10 +1632,10 @@
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="7">
@@ -1662,10 +1652,10 @@
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="7">
@@ -1682,10 +1672,10 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="7">
@@ -1702,10 +1692,10 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="7">
@@ -1722,22 +1712,22 @@
       <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="31"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="20"/>
@@ -1751,23 +1741,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A16:H17"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A16:H17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1777,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1797,133 +1787,133 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="16">
         <v>0.4375</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="12.75">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="12.75">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1936,10 +1926,10 @@
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1">
       <c r="A12" s="6">
@@ -1956,10 +1946,10 @@
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="40.5" customHeight="1">
       <c r="A13" s="6">
@@ -1976,10 +1966,10 @@
       <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="34.5" customHeight="1">
       <c r="A14" s="6">
@@ -1996,10 +1986,10 @@
       <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="42" customHeight="1">
       <c r="A15" s="6">
@@ -2009,17 +1999,17 @@
         <v>24</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="39" customHeight="1">
       <c r="A16" s="6">
@@ -2036,10 +2026,10 @@
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="12.75">
       <c r="A17" s="17" t="s">
@@ -2065,6 +2055,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:H18"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="B9:H9"/>
@@ -2075,14 +2073,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="A17:H18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <conditionalFormatting sqref="A2 C2:E2 A3:A9">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -2095,626 +2085,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="29">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="29">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="23">
-        <v>3</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="6">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="27" customHeight="1">
-      <c r="A15" s="6">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A16" s="6">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:H18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="C10:H10"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="29">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="23">
-        <v>2</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="7">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="27" customHeight="1">
-      <c r="A15" s="7">
-        <v>18</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A16" s="7">
-        <v>25</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A17:H18"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2726,133 +2100,133 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="B6" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
@@ -2865,10 +2239,10 @@
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="A12" s="6">
@@ -2878,17 +2252,17 @@
         <v>21</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1">
       <c r="A13" s="6">
@@ -2905,10 +2279,10 @@
       <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="30.75" customHeight="1">
       <c r="A14" s="6">
@@ -2925,10 +2299,10 @@
       <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
       <c r="A15" s="6">
@@ -2945,22 +2319,22 @@
       <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="31"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="20"/>
@@ -2974,6 +2348,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B5:H5"/>
@@ -2984,24 +2365,17 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3016,50 +2390,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="41" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -3069,32 +2443,32 @@
         <v>0.3</v>
       </c>
       <c r="C3" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43">
+        <v>1</v>
+      </c>
+      <c r="E3" s="41">
         <f>C3*B3</f>
-        <v>4.2</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="39">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="37">
         <f t="shared" ref="G3:G5" si="0">(D3*B3)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="37" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="33">
         <f>(H6/F6)</f>
-        <v>0.16393442622950818</v>
-      </c>
-      <c r="K3" s="37" t="s">
+        <v>9.3023255813953501E-2</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -3109,20 +2483,20 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="28">
         <f>((C4*B4))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="44">
+      <c r="F4" s="27"/>
+      <c r="G4" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="9"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -3132,57 +2506,57 @@
         <v>0.1</v>
       </c>
       <c r="C5" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6">
-        <v>4</v>
-      </c>
-      <c r="E5" s="42">
+        <v>1</v>
+      </c>
+      <c r="E5" s="40">
         <f>(C5*B5)</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6">
         <f t="shared" ref="C6:D6" si="1">(C3+C4+C5)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>((C3*B3)+(C4*B4)+(C5*B5))</f>
-        <v>6.1000000000000005</v>
-      </c>
-      <c r="G6" s="11" t="s">
+        <v>4.3</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f>((D3*B3)+(D4*B4)+(D5*B5))</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/requeriments/Inspeção/Planilha de Inspeção.xlsx
+++ b/requeriments/Inspeção/Planilha de Inspeção.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\Cliente\requeriments\Inspeção\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="UCS04" sheetId="1" r:id="rId1"/>
-    <sheet name="UCS05" sheetId="2" r:id="rId2"/>
-    <sheet name="Mediação da Inspeção" sheetId="3" r:id="rId3"/>
+    <sheet name="UCS06" sheetId="6" r:id="rId1"/>
+    <sheet name="UCS07" sheetId="2" r:id="rId2"/>
+    <sheet name="UCS08" sheetId="4" r:id="rId3"/>
+    <sheet name="UCS09" sheetId="5" r:id="rId4"/>
+    <sheet name="UCS10" sheetId="1" r:id="rId5"/>
+    <sheet name="Mediação da Inspeção" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="52">
   <si>
     <t>Nome do caso de uso:</t>
   </si>
   <si>
-    <t>Cadastrar Bolsas</t>
-  </si>
-  <si>
     <t>Data da inspeção:</t>
-  </si>
-  <si>
-    <t>11 de Julho de 2017</t>
   </si>
   <si>
     <t>Responsável pela inspeção:</t>
@@ -118,9 +110,6 @@
     <t>Outras Observações:</t>
   </si>
   <si>
-    <t>Listar Bolsas</t>
-  </si>
-  <si>
     <t>15 minutos</t>
   </si>
   <si>
@@ -173,13 +162,35 @@
   </si>
   <si>
     <t>TotalNC=</t>
+  </si>
+  <si>
+    <t>Atribuir Permissão</t>
+  </si>
+  <si>
+    <t>08 de Agosto de 2017</t>
+  </si>
+  <si>
+    <t>Padronizar Notas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Atribuir Bolsas</t>
+  </si>
+  <si>
+    <t>Revogar Bolsas</t>
+  </si>
+  <si>
+    <t>Histórico de Bolsas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -282,46 +293,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,38 +312,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -496,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,7 +515,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,234 +692,226 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.85546875"/>
-    <col min="2" max="2" width="14.42578125"/>
-    <col min="3" max="4" width="6.140625"/>
-    <col min="5" max="5" width="7"/>
-    <col min="6" max="6" width="7.42578125"/>
-    <col min="7" max="1025" width="14.140625"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="B6" s="14">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13">
-        <v>0.4375</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="51" customHeight="1">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="G12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="51" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="51" customHeight="1">
+      <c r="A14" s="4">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>12</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
-        <v>9</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
-        <v>8</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="18">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -943,77 +919,55 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
-        <v>25</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+    <row r="15" spans="1:8" ht="51" customHeight="1">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18">
-        <v>1</v>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>18</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A17:H18"/>
+  <mergeCells count="17">
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A16:H17"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -1025,6 +979,7 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1032,268 +987,560 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="32.5703125"/>
     <col min="2" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="B6" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.46875</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="33" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" customHeight="1">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A16:H17"/>
+  </mergeCells>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H17"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14">
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>12</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
-        <v>9</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
-        <v>18</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
-        <v>8</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1302,7 +1549,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="A16:H17"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -1314,21 +1560,629 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H17"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A16:H17"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875"/>
+    <col min="2" max="2" width="14.42578125"/>
+    <col min="3" max="4" width="6.140625"/>
+    <col min="5" max="5" width="7"/>
+    <col min="6" max="6" width="7.42578125"/>
+    <col min="7" max="1025" width="14.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" customHeight="1">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="42" customHeight="1">
+      <c r="A15" s="4">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="39" customHeight="1">
+      <c r="A16" s="4">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A17:H18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+  </mergeCells>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="14.140625"/>
     <col min="3" max="3" width="16.5703125"/>
@@ -1342,98 +2196,98 @@
     <col min="11" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="36" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="E2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="B3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19">
+        <f>C3*B3</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20">
+        <f>(D3*B3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="23" t="s">
+      <c r="J3" s="21">
+        <f>(H6/F6)</f>
+        <v>0.26829268292682934</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C3" s="18">
-        <v>4</v>
-      </c>
-      <c r="D3" s="18">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <f>C3*B3</f>
-        <v>1.2</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4">
-        <f>(D3*B3)</f>
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="3">
-        <f>(H6/F6)</f>
-        <v>0.23529411764705885</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="B4" s="4">
         <v>0.2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="11">
@@ -1441,75 +2295,75 @@
         <v>0</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="2">
+      <c r="G4" s="22">
         <f>(D4*B4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.1</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" s="23">
         <f>(C5*B5)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="23"/>
       <c r="G5" s="11">
         <f>(D5*B5)</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="18">
+      <c r="C6" s="4">
         <f>(C3+C4+C5)</f>
-        <v>9</v>
-      </c>
-      <c r="D6" s="18">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
         <f>(D3+D4+D5)</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="21">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7">
         <f>((C3*B3)+(C4*B4)+(C5*B5))</f>
-        <v>1.7</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="7">
         <f>((D3*B3)+(D4*B4)+(D5*B5))</f>
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="22"/>
+      <c r="L6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
